--- a/PESO/Importaciones por Lugar de Salida 2019 - Mensual - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2019 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\Peso\2019\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531AE584-3FD2-432D-B087-723174BB9B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FA2BD-D9CF-4011-8B41-00F551EC5397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impoluging" sheetId="3" r:id="rId1"/>
@@ -371,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -421,12 +421,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -446,6 +542,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,20 +552,423 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -479,6 +979,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0890BE8D-F534-4BF4-AF22-A45BB00E9E77}" name="imp_salida_2019" displayName="imp_salida_2019" ref="A1:M65" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M65" xr:uid="{8CBC462D-56EB-400B-82DE-6C3B6CB01869}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D6B6D73B-0AC5-4A3D-AD66-361F46364F36}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4DFFCB79-6939-44CD-A70F-E00AF2AC226E}" name="Enero - 2019" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5BEBB998-5CC2-4424-A5F1-2DF17C0F3B3F}" name="Febrero - 2019" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C2B2503F-6232-4856-B75D-C04004425F6B}" name="Marzo - 2019" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{9F5156BF-F4B8-4B00-AE75-5C4AEECD4E4C}" name="Abril - 2019" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{0DDF89EE-CEE4-494C-98BC-7646EA7096D2}" name="Mayo - 2019" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{8D00D43A-66C6-42E3-9391-7EC07C77E8D0}" name="Junio - 2019" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F4D5AA4E-F7E5-4226-8638-39191941688C}" name="Julio - 2019" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{9CAA4B12-A269-4434-A3D2-FF6AFADF8CAC}" name="Agosto - 2019" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1EB2C7A8-A53C-488F-9E5C-19AEC43E54C4}" name="Septiembre - 2019" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{23628DE4-62C9-4D0A-9B5E-37BA48560BB7}" name="Octubre - 2019" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{F20EB730-B57D-4052-95D1-35DFE25F3D9A}" name="Noviembre - 2019" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{3FAECBA3-3CF4-461A-9878-4BB2DF08839D}" name="Diciembre - 2019" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,42 +1289,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -846,7 +1368,7 @@
       <c r="N4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -3729,7 +4251,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3738,2677 +4260,2682 @@
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
     <col min="4" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
         <v>52040</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="11">
         <v>60</v>
       </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
         <v>14270</v>
       </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-      <c r="M2" s="17">
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>58011265.870000005</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="11">
         <v>38116789.760000005</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="11">
         <v>59449651.899999999</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>13146925.110000003</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="11">
         <v>16533134.910000002</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <v>17002200.32</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="11">
         <v>11027223.280000003</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="11">
         <v>43389174.419999965</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>48691779.260000013</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="11">
         <v>125665220.50999999</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="11">
         <v>61319215.350000024</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>57542200.510000013</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
         <v>17</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="11">
         <v>1.05</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="11">
         <v>43.83</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="11">
         <v>120</v>
       </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>12.39</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <v>14.9</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>6.4</v>
       </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>135362.99999999997</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>145570.73000000001</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="11">
         <v>262533.77</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>234219.86</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <v>245471.87000000002</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>143077.29</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="11">
         <v>233957.48</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <v>310518.39</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <v>128009.60000000002</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <v>179878.55</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="11">
         <v>192150.69</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>209069.75999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
         <v>344.6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>228</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>372.79999999999995</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>1476.32</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>1383</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>538.79999999999995</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>89.1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <v>1156.3600000000001</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <v>1361</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="11">
         <v>11744.9</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <v>168.71</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="11">
         <v>344.4</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>128.19999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>2.9</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="11">
         <v>7.86</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>64605725.240000002</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>53465573.290000007</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <v>74214755.400000006</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <v>60203660.960000001</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <v>66927113.440000013</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <v>45579154.859999999</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="11">
         <v>72761480</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <v>82636891.370000005</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="11">
         <v>50545646.970000006</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="11">
         <v>88724152.980000019</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="11">
         <v>84691140.730000019</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>60253271.070000015</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>46538068.56000001</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>22136292.82</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <v>20564196.68</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>27805510.470000003</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <v>22194122.249999996</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <v>15659865.68</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <v>25430037.449999999</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <v>13297801.530000001</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="11">
         <v>11585956.17</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="11">
         <v>23934326.52</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="11">
         <v>8085804.7800000012</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>6965685.2300000004</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
         <v>265</v>
       </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>17404675.600000001</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>19125247.300000001</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <v>20377791.309999999</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>21172652</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>12971709</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>20405062</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="11">
         <v>18614535</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <v>18957540</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="11">
         <v>20052736</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="11">
         <v>23749748</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="11">
         <v>2322164.75</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>18923750</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>46200000</v>
       </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
         <v>61591420</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>20102326</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>46204540</v>
       </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
         <v>56193325</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <v>10000051</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="11">
         <v>46200000</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="11">
         <v>54401829</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="11">
         <v>3505799</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>62201009</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>21269277.199999999</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>20635885.77</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <v>27883179.23</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>23202381.09</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>36053271.910000004</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <v>24132844.370000001</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="11">
         <v>34712696.149999999</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <v>25854406.829999998</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="11">
         <v>20316664.530000001</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="11">
         <v>37465492.049999997</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="11">
         <v>21267316.07</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>29335778</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
         <v>10280</v>
       </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="17">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>2909726.2199999997</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <v>2695279.9699999997</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <v>4901626.63</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>4298905.51</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>6565621.8799999999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <v>8415510.129999999</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="11">
         <v>2031865.37</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <v>8736.0400000000009</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="11">
         <v>3889404.85</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="11">
         <v>3250241.58</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="11">
         <v>4494981.24</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>4713542.3899999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>1725</v>
       </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
         <v>1814</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>204179</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <v>1160</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <v>49860</v>
       </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>2700</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="11">
         <v>19375.53</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="11">
         <v>26420</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>1255464.92</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <v>2238581.5</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <v>1880541.2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="11">
         <v>5275571.38</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <v>5860396.7400000002</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="11">
         <v>4402266.34</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="11">
         <v>6274921.4000000004</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="11">
         <v>14006891.84</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="11">
         <v>19786269.059999999</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="11">
         <v>24587948.16</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="11">
         <v>37036484.869999997</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>26993868.059999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>29560110</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="11">
         <v>14471603.199999999</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="11">
         <v>74101628.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="11">
         <v>8071052.3000000007</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="11">
         <v>43286236.200000003</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="11">
         <v>8931006.8000000007</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="11">
         <v>26237885.59</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="11">
         <v>33558467.799999997</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="11">
         <v>14545861</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="11">
         <v>23133184.199999999</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="11">
         <v>21495351.800000001</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>13056371.1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="11">
         <v>300500.96999999997</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="11">
         <v>102096</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="11">
         <v>141487.20000000001</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <v>39078</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>86095.72</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <v>402345</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="11">
         <v>133522.62</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <v>3569516.82</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="11">
         <v>2771981.5</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="11">
         <v>4001763.16</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="11">
         <v>997828.2</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>10528539.199999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>32140</v>
       </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
         <v>14290</v>
       </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17">
-        <v>0</v>
-      </c>
-      <c r="M21" s="17">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="11">
         <v>30604653.699999999</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="11">
         <v>3881200</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
         <v>10420100</v>
       </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
         <v>56501691</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="11">
         <v>3181943</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="11">
         <v>3075403</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="11">
         <v>11002530</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="11">
         <v>3529867</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="11">
         <v>38977620</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <v>4054609.28</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>195943214.93000001</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="11">
         <v>247682071.44999996</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <v>287203096.99000001</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <v>298110920.24000007</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>355403897.19999999</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <v>308683798.58999991</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="11">
         <v>220712792.11000004</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="11">
         <v>336682214.57000005</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="11">
         <v>162917022.13</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="11">
         <v>101269531.77</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="11">
         <v>238427387.02000001</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="16">
         <v>273809024.40999997</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
         <v>2389200</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="11">
         <v>1067000</v>
       </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>5906501</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="11">
         <v>4375440</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="11">
         <v>5533350</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <v>5394980</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>5297360</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>4733082</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="11">
         <v>33101395</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <v>6683871</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="11">
         <v>6563320</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="11">
         <v>12017840</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="11">
         <v>13729428</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="16">
         <v>23264880</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>11123541.91</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="11">
         <v>4087028</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="11">
         <v>2566100</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="11">
         <v>7646999</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <v>3976654.41</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <v>7680613.5899999999</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="11">
         <v>2635080</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="11">
         <v>2916998</v>
       </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
         <v>9651572</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="11">
         <v>2508141</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>2175568</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
         <v>814</v>
       </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
         <v>852</v>
       </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
-        <v>0</v>
-      </c>
-      <c r="M27" s="17">
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>74448600</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="11">
         <v>101559590</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="11">
         <v>47708900</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="11">
         <v>160794400</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>134811700</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>102291300</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="11">
         <v>192266258.61000001</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="11">
         <v>154253839</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="11">
         <v>272061295</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="11">
         <v>83011936</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="11">
         <v>60017300</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>218847370</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>773940</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="11">
         <v>866820</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="11">
         <v>676740</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="11">
         <v>488160</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="11">
         <v>483260</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <v>175800</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="11">
         <v>292260</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="11">
         <v>395980</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="11">
         <v>573880</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="11">
         <v>600140</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="11">
         <v>1289620</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <v>677280</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="17">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
         <v>200</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
         <v>200</v>
       </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
         <v>200</v>
       </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
-        <v>0</v>
-      </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>13332245.610000001</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="11">
         <v>15281332.700000001</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <v>16628417.860000003</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <v>14957131.070000002</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="11">
         <v>19697696.390000004</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <v>20751503.260000002</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="11">
         <v>23106872.829999998</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="11">
         <v>18630585.59</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="11">
         <v>68968314.799999967</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="11">
         <v>22531420.150000002</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="11">
         <v>23422052.580000002</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <v>18897486.520000003</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="17">
-        <v>0</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
         <v>1117</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="11">
         <v>1167.5</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="11">
         <v>3557</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="11">
         <v>1348</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="11">
         <v>1614.5</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="11">
         <v>1822</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="11">
         <v>2324</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="11">
         <v>667</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="11">
         <v>3767.5</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="16">
         <v>3054.5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="B33" s="11">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
         <v>200</v>
       </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="17">
-        <v>0</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
         <v>17503</v>
       </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
         <v>28000</v>
       </c>
-      <c r="J34" s="17">
-        <v>0</v>
-      </c>
-      <c r="K34" s="17">
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="11">
         <v>39655177.039999999</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="11">
         <v>77680814.859999999</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="11">
         <v>56483022.270000003</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="11">
         <v>34379013.839999996</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="11">
         <v>94000966.270000011</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="11">
         <v>33618654</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="11">
         <v>70780228.059999987</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="11">
         <v>99921866.309999987</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="11">
         <v>56105321.640000008</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="11">
         <v>73577053.020000011</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="11">
         <v>61520203.589999996</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="16">
         <v>31819440.240000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>4428694.9399999995</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="11">
         <v>1907877.26</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <v>1845154.29</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <v>1548104.61</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <v>1878776.1099999999</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <v>1291647.9400000002</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="11">
         <v>11076254.300000001</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <v>57656565.639999993</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="11">
         <v>88843088.840000004</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="11">
         <v>129870393.30999999</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="11">
         <v>152674744.76999998</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <v>154647309.44</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="17">
-        <v>0</v>
-      </c>
-      <c r="C37" s="17">
-        <v>0</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
         <v>4980.17</v>
       </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="17">
-        <v>0</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
         <v>1516</v>
       </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17">
-        <v>0</v>
-      </c>
-      <c r="L38" s="17">
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
         <v>40</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>852769617.5</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="11">
         <v>806340182.35000002</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="11">
         <v>887188889.80999994</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="11">
         <v>848809118.75</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="11">
         <v>645091011.91999996</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="11">
         <v>882408659.8499999</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="11">
         <v>952120073.55999994</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="11">
         <v>726945610.68000007</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="11">
         <v>1010788366.9200001</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="11">
         <v>835417505.50999999</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="11">
         <v>739869782.73000002</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <v>823918763.50999999</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="17">
-        <v>0</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
-        <v>0</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17">
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
         <v>6.42</v>
       </c>
-      <c r="I40" s="17">
-        <v>0</v>
-      </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17">
-        <v>0</v>
-      </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="11">
         <v>288960</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="11">
         <v>899180</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="11">
         <v>431060</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="11">
         <v>229620</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <v>1103800</v>
       </c>
-      <c r="G41" s="17">
-        <v>0</v>
-      </c>
-      <c r="H41" s="17">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
         <v>78674.740000000005</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="11">
         <v>165272.76</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="11">
         <v>91233.51</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="11">
         <v>313836.09999999998</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="16">
         <v>590456.0199999999</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="11">
         <v>150900</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <v>1751161</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="11">
         <v>525800</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="11">
         <v>1006000</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>1472281</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="11">
         <v>615672</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="11">
         <v>531168</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="11">
         <v>966404</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="11">
         <v>839770</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="11">
         <v>1519200</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="11">
         <v>1043312</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="16">
         <v>1241350</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>5422244.1500000004</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="11">
         <v>4446165.42</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="11">
         <v>4136531.29</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="11">
         <v>4387438.9000000004</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <v>2913784.83</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="11">
         <v>3286273.08</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="11">
         <v>3940564.42</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="11">
         <v>3357441.6900000004</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="11">
         <v>3721259.3600000003</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="11">
         <v>3450785.41</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="11">
         <v>3195569.8099999996</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="16">
         <v>4150004.0700000003</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="17">
-        <v>0</v>
-      </c>
-      <c r="C44" s="17">
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
         <v>47026800</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="11">
         <v>5501200</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="11">
         <v>45919800</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <v>5185200</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="11">
         <v>52197300</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="11">
         <v>5815350</v>
       </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
-        <v>0</v>
-      </c>
-      <c r="L44" s="17">
-        <v>0</v>
-      </c>
-      <c r="M44" s="17">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="11">
         <v>3506000</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="11">
         <v>45621478.200000003</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="11">
         <v>24911241</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="11">
         <v>32661983</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="11">
         <v>22465851</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="11">
         <v>7246910</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="11">
         <v>13474154</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="11">
         <v>40214713</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="11">
         <v>19923660</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="11">
         <v>24076540</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="11">
         <v>6129560</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="16">
         <v>49241390</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="11">
         <v>31512223.84</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="11">
         <v>34255851.960000001</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="11">
         <v>36206531.140000001</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="11">
         <v>34946826.469999999</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="11">
         <v>31907523.59</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="11">
         <v>20031968.359999999</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="11">
         <v>28409855.280000001</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="11">
         <v>33130792.690000001</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="11">
         <v>27188106.550000001</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="11">
         <v>27966399.52</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="11">
         <v>21548748.759999998</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="16">
         <v>21274927.790000003</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="17">
-        <v>0</v>
-      </c>
-      <c r="C47" s="17">
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
         <v>21176.400000000001</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="11">
         <v>22689</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="11">
         <v>22461.35</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="11">
         <v>37815</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="11">
         <v>7109.22</v>
       </c>
-      <c r="H47" s="17">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17">
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
         <v>45378</v>
       </c>
-      <c r="J47" s="17">
-        <v>0</v>
-      </c>
-      <c r="K47" s="17">
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
         <v>71848.5</v>
       </c>
-      <c r="L47" s="17">
-        <v>0</v>
-      </c>
-      <c r="M47" s="17">
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="11">
         <v>21536637.460000005</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="11">
         <v>117811717.46000001</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="11">
         <v>35718707.93</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="11">
         <v>55442288.690000005</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="11">
         <v>156073952.75999999</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="11">
         <v>33090971.690000001</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="11">
         <v>36559408.670000002</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="11">
         <v>82031693.790000007</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="11">
         <v>21818578.130000003</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="11">
         <v>24227604.219999999</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="11">
         <v>80590504.430000007</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <v>24641385.68</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="11">
         <v>59559308</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="11">
         <v>69331309</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="11">
         <v>41590386</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="11">
         <v>29320819</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="11">
         <v>70646909.739999995</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="11">
         <v>26806085.739999998</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="11">
         <v>64830893</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="11">
         <v>90850311</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="11">
         <v>58947834.5</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="11">
         <v>96712242.799999997</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="11">
         <v>63495244</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="16">
         <v>26092090.199999999</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="11">
         <v>25160729.890000001</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="11">
         <v>36025115.219999999</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="11">
         <v>119692336.34999999</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="11">
         <v>54023886.269999996</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="11">
         <v>47001810.68</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="11">
         <v>13036366.609999998</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="11">
         <v>9677739.5800000001</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="11">
         <v>33429752.379999999</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="11">
         <v>68507469.5</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="11">
         <v>66408184.540000007</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="11">
         <v>79609524.319999993</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="16">
         <v>62914019.840000004</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="17">
-        <v>0</v>
-      </c>
-      <c r="C51" s="17">
-        <v>0</v>
-      </c>
-      <c r="D51" s="17">
-        <v>0</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
         <v>161000</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="11">
         <v>92000</v>
       </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
         <v>129000</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="11">
         <v>194800</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="11">
         <v>207000</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="11">
         <v>184000</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="16">
         <v>161000</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="11">
         <v>588637727.54999995</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="11">
         <v>662594921.77999997</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="11">
         <v>873299301.85000002</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="11">
         <v>705658591.86000001</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="11">
         <v>850255290.11000001</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="11">
         <v>518468183.70999998</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="11">
         <v>699496983.82999992</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="11">
         <v>682892703.82000005</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="11">
         <v>472323291.54000002</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="11">
         <v>648460939.82999992</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="11">
         <v>549385586.63</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="16">
         <v>524370480.42000002</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="11">
         <v>1070</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="11">
         <v>627</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="11">
         <v>379</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="11">
         <v>137.4</v>
       </c>
-      <c r="F53" s="17">
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
         <v>289.2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="11">
         <v>300890</v>
       </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
         <v>182</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="11">
         <v>9798.5</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="11">
         <v>250</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="11">
         <v>961350400.17000031</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="11">
         <v>1121828030.75</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="11">
         <v>793841576.44000006</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="11">
         <v>871798190.99999988</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="11">
         <v>904654493.90999985</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="11">
         <v>885574505.82000017</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="11">
         <v>973560835.75000012</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="11">
         <v>1141274148.02</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="11">
         <v>1002148600.24</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="11">
         <v>886370003.57000029</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="11">
         <v>965205074.71000028</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="16">
         <v>1016274222.2299999</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="17">
-        <v>0</v>
-      </c>
-      <c r="C55" s="17">
-        <v>0</v>
-      </c>
-      <c r="D55" s="17">
-        <v>0</v>
-      </c>
-      <c r="E55" s="17">
-        <v>0</v>
-      </c>
-      <c r="F55" s="17">
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
         <v>4771</v>
       </c>
-      <c r="G55" s="17">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17">
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
         <v>1074.55</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="11">
         <v>23513</v>
       </c>
-      <c r="J55" s="17">
-        <v>0</v>
-      </c>
-      <c r="K55" s="17">
-        <v>0</v>
-      </c>
-      <c r="L55" s="17">
-        <v>0</v>
-      </c>
-      <c r="M55" s="17">
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="17">
-        <v>0</v>
-      </c>
-      <c r="C56" s="17">
-        <v>0</v>
-      </c>
-      <c r="D56" s="17">
-        <v>0</v>
-      </c>
-      <c r="E56" s="17">
-        <v>0</v>
-      </c>
-      <c r="F56" s="17">
-        <v>0</v>
-      </c>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
+      <c r="B56" s="11">
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
         <v>8647.4</v>
       </c>
-      <c r="J56" s="17">
-        <v>0</v>
-      </c>
-      <c r="K56" s="17">
-        <v>0</v>
-      </c>
-      <c r="L56" s="17">
-        <v>0</v>
-      </c>
-      <c r="M56" s="17">
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="17">
-        <v>0</v>
-      </c>
-      <c r="C57" s="17">
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
         <v>480</v>
       </c>
-      <c r="D57" s="17">
-        <v>0</v>
-      </c>
-      <c r="E57" s="17">
-        <v>0</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17">
-        <v>0</v>
-      </c>
-      <c r="I57" s="17">
-        <v>0</v>
-      </c>
-      <c r="J57" s="17">
-        <v>0</v>
-      </c>
-      <c r="K57" s="17">
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
         <v>1355</v>
       </c>
-      <c r="L57" s="17">
-        <v>0</v>
-      </c>
-      <c r="M57" s="17">
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="11">
         <v>327997600.07999998</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="11">
         <v>271306030.25</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="11">
         <v>208271477.03000003</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="11">
         <v>248008849.32999998</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="11">
         <v>392592083.03000003</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="11">
         <v>254051671.49000004</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="11">
         <v>384170958.5</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="11">
         <v>292630474.34000003</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="11">
         <v>377948965.41999996</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="11">
         <v>285845033.88999999</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="11">
         <v>551594190.71000028</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="16">
         <v>348664302.08999991</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="17">
-        <v>0</v>
-      </c>
-      <c r="C59" s="17">
-        <v>0</v>
-      </c>
-      <c r="D59" s="17">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17">
-        <v>0</v>
-      </c>
-      <c r="F59" s="17">
-        <v>0</v>
-      </c>
-      <c r="G59" s="17">
-        <v>0</v>
-      </c>
-      <c r="H59" s="17">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
-        <v>0</v>
-      </c>
-      <c r="J59" s="17">
-        <v>0</v>
-      </c>
-      <c r="K59" s="17">
-        <v>0</v>
-      </c>
-      <c r="L59" s="17">
-        <v>0</v>
-      </c>
-      <c r="M59" s="17">
+      <c r="B59" s="11">
+        <v>0</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="16">
         <v>51720</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="11">
         <v>507266075</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="11">
         <v>465259686.53000003</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="11">
         <v>409248599.46000004</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="11">
         <v>456390268.75</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="11">
         <v>656768051.25000012</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="11">
         <v>686743304.09000003</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="11">
         <v>469143809.68000001</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="11">
         <v>478709249.19999999</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="11">
         <v>570950940.5</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="11">
         <v>523504089.44999999</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="11">
         <v>383620345.31999999</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="16">
         <v>382546851.5</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="17">
-        <v>0</v>
-      </c>
-      <c r="C61" s="17">
-        <v>0</v>
-      </c>
-      <c r="D61" s="17">
-        <v>0</v>
-      </c>
-      <c r="E61" s="17">
-        <v>0</v>
-      </c>
-      <c r="F61" s="17">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17">
-        <v>0</v>
-      </c>
-      <c r="I61" s="17">
-        <v>0</v>
-      </c>
-      <c r="J61" s="17">
-        <v>0</v>
-      </c>
-      <c r="K61" s="17">
-        <v>0</v>
-      </c>
-      <c r="L61" s="17">
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
         <v>567225</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="17">
-        <v>0</v>
-      </c>
-      <c r="C62" s="17">
-        <v>0</v>
-      </c>
-      <c r="D62" s="17">
+      <c r="B62" s="11">
+        <v>0</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11">
         <v>101201600</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="11">
         <v>77489100</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="11">
         <v>126656800</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="11">
         <v>8173500</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="11">
         <v>76946500</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="11">
         <v>45345618</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="11">
         <v>73758082</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="11">
         <v>56545700</v>
       </c>
-      <c r="L62" s="17">
-        <v>0</v>
-      </c>
-      <c r="M62" s="17">
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="16">
         <v>56362500</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="11">
         <v>386362096.40999991</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="11">
         <v>350627814.80000007</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="11">
         <v>358437263.4600001</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="11">
         <v>305598845.78999984</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="11">
         <v>385592922.70999998</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="11">
         <v>299571429.13</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="11">
         <v>440038605.51000017</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="11">
         <v>297577769.92000008</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="11">
         <v>328865236.66000009</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="11">
         <v>333624634.54000002</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="11">
         <v>333478168.20999992</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="16">
         <v>245803059.05000004</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="11">
         <v>106070709</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="11">
         <v>393950187.93000001</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="11">
         <v>229926140</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="11">
         <v>304269084</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="11">
         <v>156827902</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="11">
         <v>126934814</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="11">
         <v>219588623</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="11">
         <v>197416708</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="11">
         <v>316388737.24000001</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="11">
         <v>209330488.28999999</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="11">
         <v>173576987.47</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <v>176045461.90000001</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="21">
         <v>279558609.3299998</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="21">
         <v>528550804.98999983</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="21">
         <v>501042072.07999986</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="21">
         <v>548964220.8900001</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="21">
         <v>566314873.11000049</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="21">
         <v>377862260.93000001</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="21">
         <v>290316034.50999999</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="21">
         <v>251012577.31999999</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="21">
         <v>218734370.83999994</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="21">
         <v>268615140.72000009</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="21">
         <v>409257741.02000016</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="22">
         <v>162076143.28000006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>